--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,22 +567,22 @@
         <v>1.250532</v>
       </c>
       <c r="O2">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P2">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q2">
-        <v>81.31761009329399</v>
+        <v>75.65485479993001</v>
       </c>
       <c r="R2">
-        <v>487.9056605597639</v>
+        <v>453.92912879958</v>
       </c>
       <c r="S2">
-        <v>0.0008167049903060016</v>
+        <v>0.0002200027241334505</v>
       </c>
       <c r="T2">
-        <v>0.0006132979135544459</v>
+        <v>0.0001626105195807024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N3">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O3">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P3">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q3">
-        <v>19175.35360954857</v>
+        <v>20003.0689665015</v>
       </c>
       <c r="R3">
-        <v>115052.1216572914</v>
+        <v>120018.413799009</v>
       </c>
       <c r="S3">
-        <v>0.1925856769011464</v>
+        <v>0.05816850320177584</v>
       </c>
       <c r="T3">
-        <v>0.1446206344100941</v>
+        <v>0.04299406094233151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N4">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O4">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P4">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q4">
-        <v>25.25037385410525</v>
+        <v>128.6317111411238</v>
       </c>
       <c r="R4">
-        <v>101.001495416421</v>
+        <v>514.5268445644951</v>
       </c>
       <c r="S4">
-        <v>0.0002535995131937675</v>
+        <v>0.0003740583064475133</v>
       </c>
       <c r="T4">
-        <v>0.0001269589828773515</v>
+        <v>0.0001843183709186306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N5">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O5">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P5">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q5">
-        <v>14.44568263733783</v>
+        <v>41628.85904258873</v>
       </c>
       <c r="R5">
-        <v>86.67409582402699</v>
+        <v>249773.1542555324</v>
       </c>
       <c r="S5">
-        <v>0.0001450837166113851</v>
+        <v>0.1210558452085671</v>
       </c>
       <c r="T5">
-        <v>0.0001089494269591132</v>
+        <v>0.08947595519638003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N6">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O6">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P6">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q6">
-        <v>6995.59039247245</v>
+        <v>15175.56982273352</v>
       </c>
       <c r="R6">
-        <v>41973.5423548347</v>
+        <v>91053.41893640113</v>
       </c>
       <c r="S6">
-        <v>0.07025948717767506</v>
+        <v>0.04413023738011123</v>
       </c>
       <c r="T6">
-        <v>0.05276078560182249</v>
+        <v>0.03261796351779143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -877,10 +877,10 @@
         <v>1.250532</v>
       </c>
       <c r="O7">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P7">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q7">
         <v>26.014367977116</v>
@@ -889,10 +889,10 @@
         <v>234.129311794044</v>
       </c>
       <c r="S7">
-        <v>0.0002612726089981262</v>
+        <v>7.564923410018645E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002943007840091187</v>
+        <v>8.387187916444853E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N8">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O8">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P8">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q8">
-        <v>6134.399477773798</v>
+        <v>6878.173226851279</v>
       </c>
       <c r="R8">
-        <v>55209.59529996418</v>
+        <v>61903.5590416615</v>
       </c>
       <c r="S8">
-        <v>0.06161020546817017</v>
+        <v>0.0200015828590348</v>
       </c>
       <c r="T8">
-        <v>0.06939851767000732</v>
+        <v>0.02217564210139884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N9">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O9">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P9">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q9">
-        <v>8.077863039098501</v>
+        <v>44.23077244679851</v>
       </c>
       <c r="R9">
-        <v>48.467178234591</v>
+        <v>265.3846346807911</v>
       </c>
       <c r="S9">
-        <v>8.112918035184858E-05</v>
+        <v>0.000128622154580243</v>
       </c>
       <c r="T9">
-        <v>6.092329253373173E-05</v>
+        <v>9.506843821259141E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N10">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O10">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P10">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q10">
-        <v>4.621327451424112</v>
+        <v>14314.32867679495</v>
       </c>
       <c r="R10">
-        <v>41.59194706281701</v>
+        <v>128828.9580911546</v>
       </c>
       <c r="S10">
-        <v>4.641382336600963E-05</v>
+        <v>0.04162576626925695</v>
       </c>
       <c r="T10">
-        <v>5.228111993008556E-05</v>
+        <v>0.04615025228198696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N11">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O11">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P11">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q11">
-        <v>2237.963738459198</v>
+        <v>5218.209177388733</v>
       </c>
       <c r="R11">
-        <v>20141.67364613279</v>
+        <v>46963.8825964986</v>
       </c>
       <c r="S11">
-        <v>0.02247675689468193</v>
+        <v>0.0151744423693581</v>
       </c>
       <c r="T11">
-        <v>0.02531810434110488</v>
+        <v>0.01682381866689056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H12">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I12">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J12">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>1.250532</v>
       </c>
       <c r="O12">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P12">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q12">
-        <v>59.551213936632</v>
+        <v>71.69634751206</v>
       </c>
       <c r="R12">
-        <v>535.9609254296879</v>
+        <v>645.26712760854</v>
       </c>
       <c r="S12">
-        <v>0.0005980964460838048</v>
+        <v>0.0002084914683239379</v>
       </c>
       <c r="T12">
-        <v>0.0006737034305681609</v>
+        <v>0.0002311533149816869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H13">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I13">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J13">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N13">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O13">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P13">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q13">
-        <v>14042.66042500142</v>
+        <v>18956.4435451315</v>
       </c>
       <c r="R13">
-        <v>126383.9438250127</v>
+        <v>170607.9919061835</v>
       </c>
       <c r="S13">
-        <v>0.1410360047855986</v>
+        <v>0.05512493852297702</v>
       </c>
       <c r="T13">
-        <v>0.1588647464465484</v>
+        <v>0.06111670842065255</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N14">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O14">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P14">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q14">
-        <v>18.491571673597</v>
+        <v>121.9012829703225</v>
       </c>
       <c r="R14">
-        <v>110.949430041582</v>
+        <v>731.4076978219351</v>
       </c>
       <c r="S14">
-        <v>0.0001857181838854018</v>
+        <v>0.0003544863630993098</v>
       </c>
       <c r="T14">
-        <v>0.0001394635468596338</v>
+        <v>0.0002620113542452627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N15">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O15">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P15">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q15">
-        <v>10.57898696493711</v>
+        <v>39450.70217028246</v>
       </c>
       <c r="R15">
-        <v>95.210882684434</v>
+        <v>355056.3195325421</v>
       </c>
       <c r="S15">
-        <v>0.0001062489593180849</v>
+        <v>0.114721810905486</v>
       </c>
       <c r="T15">
-        <v>0.0001196801767600889</v>
+        <v>0.1271914246884347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N16">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O16">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P16">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q16">
-        <v>5123.071123182574</v>
+        <v>14381.53480806416</v>
       </c>
       <c r="R16">
-        <v>46107.64010864317</v>
+        <v>129433.8132725774</v>
       </c>
       <c r="S16">
-        <v>0.05145303393933396</v>
+        <v>0.04182120028333042</v>
       </c>
       <c r="T16">
-        <v>0.05795735069994413</v>
+        <v>0.04636692887108879</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H17">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I17">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J17">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1497,22 +1497,22 @@
         <v>1.250532</v>
       </c>
       <c r="O17">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P17">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q17">
-        <v>22.099866076638</v>
+        <v>23.194365447402</v>
       </c>
       <c r="R17">
-        <v>132.599196459828</v>
+        <v>139.166192684412</v>
       </c>
       <c r="S17">
-        <v>0.0002219577148071279</v>
+        <v>6.744872614546263E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001666773253552923</v>
+        <v>4.985334816544013E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H18">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I18">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J18">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N18">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O18">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P18">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q18">
-        <v>5211.328102941231</v>
+        <v>6132.56734026606</v>
       </c>
       <c r="R18">
-        <v>31267.96861764738</v>
+        <v>36795.40404159635</v>
       </c>
       <c r="S18">
-        <v>0.05233943376977086</v>
+        <v>0.01783337664659176</v>
       </c>
       <c r="T18">
-        <v>0.0393038684820507</v>
+        <v>0.01318117606862729</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H19">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I19">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J19">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N19">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O19">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P19">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q19">
-        <v>6.862349740979251</v>
+        <v>39.43608013288576</v>
       </c>
       <c r="R19">
-        <v>27.44939896391701</v>
+        <v>157.744320531543</v>
       </c>
       <c r="S19">
-        <v>6.892129850167645E-05</v>
+        <v>0.0001146792903287409</v>
       </c>
       <c r="T19">
-        <v>3.450392252793258E-05</v>
+        <v>5.650856993992231E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N20">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O20">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P20">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q20">
-        <v>3.925935001096501</v>
+        <v>12762.63066455693</v>
       </c>
       <c r="R20">
-        <v>23.55561000657901</v>
+        <v>76575.78398734157</v>
       </c>
       <c r="S20">
-        <v>3.942972135228709E-05</v>
+        <v>0.03711346113526915</v>
       </c>
       <c r="T20">
-        <v>2.960942583236858E-05</v>
+        <v>0.02743165668704881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N21">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O21">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P21">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q21">
-        <v>1901.207015593368</v>
+        <v>4652.54626780901</v>
       </c>
       <c r="R21">
-        <v>11407.24209356021</v>
+        <v>27915.27760685406</v>
       </c>
       <c r="S21">
-        <v>0.01909457564552715</v>
+        <v>0.01352950654365471</v>
       </c>
       <c r="T21">
-        <v>0.01433891496024973</v>
+        <v>0.01000005839654828</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H22">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I22">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J22">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1807,22 +1807,22 @@
         <v>1.250532</v>
       </c>
       <c r="O22">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P22">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q22">
-        <v>59.93542849989599</v>
+        <v>84.78036592354799</v>
       </c>
       <c r="R22">
-        <v>539.418856499064</v>
+        <v>763.023293311932</v>
       </c>
       <c r="S22">
-        <v>0.0006019552652351048</v>
+        <v>0.0002465395182574399</v>
       </c>
       <c r="T22">
-        <v>0.0006780500534534751</v>
+        <v>0.0002733369733415238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H23">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I23">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J23">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N23">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O23">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P23">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q23">
-        <v>14133.26134286008</v>
+        <v>22415.84510417345</v>
       </c>
       <c r="R23">
-        <v>127199.3520857407</v>
+        <v>201742.605937561</v>
       </c>
       <c r="S23">
-        <v>0.1419459457154487</v>
+        <v>0.06518480538642434</v>
       </c>
       <c r="T23">
-        <v>0.1598897154629476</v>
+        <v>0.07227002607174841</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H24">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I24">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J24">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N24">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O24">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P24">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q24">
-        <v>18.610876229541</v>
+        <v>144.1473064584705</v>
       </c>
       <c r="R24">
-        <v>111.665257377246</v>
+        <v>864.8838387508231</v>
       </c>
       <c r="S24">
-        <v>0.0001869164068299019</v>
+        <v>0.000419177330803524</v>
       </c>
       <c r="T24">
-        <v>0.0001403633425515392</v>
+        <v>0.0003098263615911707</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H25">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I25">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J25">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N25">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O25">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P25">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q25">
-        <v>10.64724083564467</v>
+        <v>46650.14442158096</v>
       </c>
       <c r="R25">
-        <v>95.825167520802</v>
+        <v>419851.2997942287</v>
       </c>
       <c r="S25">
-        <v>0.0001069344599956209</v>
+        <v>0.1356576373202714</v>
       </c>
       <c r="T25">
-        <v>0.000120452333426688</v>
+        <v>0.1504028573507044</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N26">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O26">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P26">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q26">
-        <v>5156.124329054389</v>
+        <v>17006.05157556777</v>
       </c>
       <c r="R26">
-        <v>46405.1189614895</v>
+        <v>153054.4641801099</v>
       </c>
       <c r="S26">
-        <v>0.05178500038731677</v>
+        <v>0.04945323975933832</v>
       </c>
       <c r="T26">
-        <v>0.05833128192174614</v>
+        <v>0.0548285279913429</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H27">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I27">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J27">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.250532</v>
       </c>
       <c r="O27">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P27">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q27">
-        <v>59.03213074769999</v>
+        <v>56.48203338798</v>
       </c>
       <c r="R27">
-        <v>531.2891767293</v>
+        <v>508.33830049182</v>
       </c>
       <c r="S27">
-        <v>0.0005928830878665829</v>
+        <v>0.000164248563331637</v>
       </c>
       <c r="T27">
-        <v>0.00066783103768116</v>
+        <v>0.0001821014557588412</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H28">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I28">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J28">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N28">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O28">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P28">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q28">
-        <v>13920.25638866632</v>
+        <v>14933.79390147279</v>
       </c>
       <c r="R28">
-        <v>125282.3074979968</v>
+        <v>134404.1451132551</v>
       </c>
       <c r="S28">
-        <v>0.139806652530979</v>
+        <v>0.04342715809395174</v>
       </c>
       <c r="T28">
-        <v>0.15747998845854</v>
+        <v>0.04814744523768212</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H29">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I29">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J29">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N29">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O29">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P29">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q29">
-        <v>18.3303883263875</v>
+        <v>96.03323702939251</v>
       </c>
       <c r="R29">
-        <v>109.982329958325</v>
+        <v>576.1994221763551</v>
       </c>
       <c r="S29">
-        <v>0.0001840993556405825</v>
+        <v>0.0002792626303981651</v>
       </c>
       <c r="T29">
-        <v>0.0001382479010674137</v>
+        <v>0.000206411268803079</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H30">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I30">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J30">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N30">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O30">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P30">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q30">
-        <v>10.48677433103056</v>
+        <v>31079.07103337915</v>
       </c>
       <c r="R30">
-        <v>94.38096897927501</v>
+        <v>279711.6393004123</v>
       </c>
       <c r="S30">
-        <v>0.0001053228312851245</v>
+        <v>0.09037728390282693</v>
       </c>
       <c r="T30">
-        <v>0.0001186369743852276</v>
+        <v>0.1002007849103958</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H31">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I31">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J31">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N31">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O31">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P31">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q31">
-        <v>5078.415440788311</v>
+        <v>11329.70307954447</v>
       </c>
       <c r="R31">
-        <v>45705.7389670948</v>
+        <v>101967.3277159002</v>
       </c>
       <c r="S31">
-        <v>0.05100453922072291</v>
+        <v>0.03294653790182452</v>
       </c>
       <c r="T31">
-        <v>0.05745216055461157</v>
+        <v>0.03652764074424304</v>
       </c>
     </row>
   </sheetData>
